--- a/biology/Botanique/Globba/Globba.xlsx
+++ b/biology/Botanique/Globba/Globba.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Globba est un genre de plantes à fleurs de la famille des Zingiberaceae originaire de l’Asie du Sud-Est.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (21 sept. 2010)[1]
-Selon NCBI  (18 juil. 2010)[2]
+          <t>Selon NCBI  (18 juil. 2010)[2]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Globba acehensis
 Globba adhaerans
 Globba aff. adhaerens Williams 00-385
@@ -620,9 +637,11 @@
           <t>Espèces aux noms synonymes, obsolètes et leurs taxons de référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (21 sept 2011)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (21 sept 2011) :
 			Globba schomburgkii.
 			Globba schomburgkii.
 			Globba marantina.
@@ -658,6 +677,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
